--- a/Tugas 2/citraasli.xlsx
+++ b/Tugas 2/citraasli.xlsx
@@ -1456,19 +1456,19 @@
         <v>218</v>
       </c>
       <c r="FE2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="FF2">
         <v>219</v>
       </c>
       <c r="FG2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="FH2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="FI2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="FJ2">
         <v>208</v>
@@ -1516,10 +1516,10 @@
         <v>209</v>
       </c>
       <c r="FY2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="FZ2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="GA2">
         <v>208</v>
@@ -1528,7 +1528,7 @@
         <v>207</v>
       </c>
       <c r="GC2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="GD2">
         <v>205</v>
@@ -1537,7 +1537,7 @@
         <v>205</v>
       </c>
       <c r="GF2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GG2">
         <v>203</v>
@@ -2061,19 +2061,19 @@
         <v>216</v>
       </c>
       <c r="FE3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FF3">
         <v>216</v>
       </c>
       <c r="FG3">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="FH3">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="FI3">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="FJ3">
         <v>202</v>
@@ -2109,10 +2109,10 @@
         <v>207</v>
       </c>
       <c r="FU3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FV3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FW3">
         <v>203</v>
@@ -2127,7 +2127,7 @@
         <v>205</v>
       </c>
       <c r="GA3">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="GB3">
         <v>203</v>
@@ -2151,7 +2151,7 @@
         <v>201</v>
       </c>
       <c r="GI3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="GJ3">
         <v>202</v>
@@ -2160,28 +2160,28 @@
         <v>202</v>
       </c>
       <c r="GL3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="GM3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GN3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GO3">
+        <v>206</v>
+      </c>
+      <c r="GP3">
+        <v>206</v>
+      </c>
+      <c r="GQ3">
         <v>205</v>
-      </c>
-      <c r="GP3">
-        <v>205</v>
-      </c>
-      <c r="GQ3">
-        <v>204</v>
       </c>
       <c r="GR3">
         <v>203</v>
       </c>
       <c r="GS3">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -2585,16 +2585,16 @@
         <v>253</v>
       </c>
       <c r="ED4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="EF4">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="EG4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="EH4">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>218</v>
       </c>
       <c r="FH4">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="FI4">
         <v>219</v>
@@ -2711,7 +2711,7 @@
         <v>200</v>
       </c>
       <c r="FT4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="FU4">
         <v>207</v>
@@ -3190,16 +3190,16 @@
         <v>253</v>
       </c>
       <c r="ED5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="EE5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="EF5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="EG5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="EH5">
         <v>5</v>
@@ -3280,10 +3280,10 @@
         <v>216</v>
       </c>
       <c r="FH5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="FI5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="FJ5">
         <v>201</v>
@@ -3358,19 +3358,19 @@
         <v>207</v>
       </c>
       <c r="GH5">
+        <v>207</v>
+      </c>
+      <c r="GI5">
         <v>206</v>
       </c>
-      <c r="GI5">
+      <c r="GJ5">
         <v>205</v>
       </c>
-      <c r="GJ5">
+      <c r="GK5">
         <v>204</v>
       </c>
-      <c r="GK5">
-        <v>203</v>
-      </c>
       <c r="GL5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GM5">
         <v>205</v>
@@ -3388,10 +3388,10 @@
         <v>204</v>
       </c>
       <c r="GR5">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="GS5">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -3720,13 +3720,13 @@
         <v>253</v>
       </c>
       <c r="DE6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DF6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="DG6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DH6">
         <v>249</v>
@@ -3735,7 +3735,7 @@
         <v>248</v>
       </c>
       <c r="DJ6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="DK6">
         <v>248</v>
@@ -3798,7 +3798,7 @@
         <v>251</v>
       </c>
       <c r="EE6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="EF6">
         <v>223</v>
@@ -3981,7 +3981,7 @@
         <v>202</v>
       </c>
       <c r="GN6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="GO6">
         <v>202</v>
@@ -4325,22 +4325,22 @@
         <v>252</v>
       </c>
       <c r="DE7">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="DF7">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DG7">
         <v>242</v>
       </c>
       <c r="DH7">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DI7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DJ7">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DK7">
         <v>246</v>
@@ -4406,16 +4406,16 @@
         <v>250</v>
       </c>
       <c r="EF7">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="EG7">
         <v>10</v>
       </c>
       <c r="EH7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EI7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EJ7">
         <v>60</v>
@@ -4586,7 +4586,7 @@
         <v>204</v>
       </c>
       <c r="GN7">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GO7">
         <v>198</v>
@@ -4927,13 +4927,13 @@
         <v>252</v>
       </c>
       <c r="DD8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="DE8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DF8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="DG8">
         <v>199</v>
@@ -5011,16 +5011,16 @@
         <v>250</v>
       </c>
       <c r="EF8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="EG8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EH8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EI8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EJ8">
         <v>59</v>
@@ -5191,7 +5191,7 @@
         <v>202</v>
       </c>
       <c r="GN8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="GO8">
         <v>198</v>
@@ -5616,7 +5616,7 @@
         <v>250</v>
       </c>
       <c r="EF9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EG9">
         <v>6</v>
@@ -5796,7 +5796,7 @@
         <v>203</v>
       </c>
       <c r="GN9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GO9">
         <v>198</v>
@@ -6140,7 +6140,7 @@
         <v>230</v>
       </c>
       <c r="DE10">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="DF10">
         <v>67</v>
@@ -6149,7 +6149,7 @@
         <v>58</v>
       </c>
       <c r="DH10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="DI10">
         <v>58</v>
@@ -6158,10 +6158,10 @@
         <v>69</v>
       </c>
       <c r="DK10">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DL10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DM10">
         <v>253</v>
@@ -6284,7 +6284,7 @@
         <v>167</v>
       </c>
       <c r="FA10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="FB10">
         <v>194</v>
@@ -6356,10 +6356,10 @@
         <v>182</v>
       </c>
       <c r="FY10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="FZ10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="GA10">
         <v>128</v>
@@ -6368,7 +6368,7 @@
         <v>126</v>
       </c>
       <c r="GC10">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="GD10">
         <v>126</v>
@@ -6404,7 +6404,7 @@
         <v>204</v>
       </c>
       <c r="GO10">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="GP10">
         <v>192</v>
@@ -6742,16 +6742,16 @@
         <v>243</v>
       </c>
       <c r="DD11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DE11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="DF11">
         <v>34</v>
       </c>
       <c r="DG11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="DH11">
         <v>43</v>
@@ -6877,7 +6877,7 @@
         <v>162</v>
       </c>
       <c r="EW11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EX11">
         <v>164</v>
@@ -7356,7 +7356,7 @@
         <v>38</v>
       </c>
       <c r="DG12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="DH12">
         <v>40</v>
@@ -7611,7 +7611,7 @@
         <v>201</v>
       </c>
       <c r="GN12">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="GO12">
         <v>186</v>
@@ -7955,7 +7955,7 @@
         <v>64</v>
       </c>
       <c r="DE13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="DF13">
         <v>45</v>
@@ -7973,7 +7973,7 @@
         <v>64</v>
       </c>
       <c r="DK13">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DL13">
         <v>247</v>
@@ -8225,7 +8225,7 @@
         <v>178</v>
       </c>
       <c r="GQ13">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="GR13">
         <v>174</v>
@@ -8647,10 +8647,10 @@
         <v>11</v>
       </c>
       <c r="EH14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EI14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EJ14">
         <v>102</v>
@@ -8689,7 +8689,7 @@
         <v>198</v>
       </c>
       <c r="EV14">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="EW14">
         <v>161</v>
@@ -8827,7 +8827,7 @@
         <v>182</v>
       </c>
       <c r="GP14">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="GQ14">
         <v>176</v>
@@ -9186,7 +9186,7 @@
         <v>79</v>
       </c>
       <c r="DL15">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="DM15">
         <v>253</v>
@@ -9267,7 +9267,7 @@
         <v>143</v>
       </c>
       <c r="EM15">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="EN15">
         <v>152</v>
@@ -9297,7 +9297,7 @@
         <v>159</v>
       </c>
       <c r="EW15">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EX15">
         <v>162</v>
@@ -9767,7 +9767,7 @@
         <v>45</v>
       </c>
       <c r="DD16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DE16">
         <v>45</v>
@@ -9791,7 +9791,7 @@
         <v>61</v>
       </c>
       <c r="DL16">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="DM16">
         <v>253</v>
@@ -9902,7 +9902,7 @@
         <v>161</v>
       </c>
       <c r="EW16">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EX16">
         <v>162</v>
@@ -10366,10 +10366,10 @@
         <v>96</v>
       </c>
       <c r="DB17">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="DC17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DD17">
         <v>47</v>
@@ -10396,7 +10396,7 @@
         <v>73</v>
       </c>
       <c r="DL17">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DM17">
         <v>252</v>
@@ -10477,7 +10477,7 @@
         <v>162</v>
       </c>
       <c r="EM17">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EN17">
         <v>155</v>
@@ -10507,7 +10507,7 @@
         <v>163</v>
       </c>
       <c r="EW17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EX17">
         <v>162</v>
@@ -10588,7 +10588,7 @@
         <v>136</v>
       </c>
       <c r="FX17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="FY17">
         <v>127</v>
@@ -10977,7 +10977,7 @@
         <v>47</v>
       </c>
       <c r="DD18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="DE18">
         <v>49</v>
@@ -10995,7 +10995,7 @@
         <v>81</v>
       </c>
       <c r="DJ18">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="DK18">
         <v>93</v>
@@ -11067,7 +11067,7 @@
         <v>13</v>
       </c>
       <c r="EH18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EI18">
         <v>13</v>
@@ -11076,10 +11076,10 @@
         <v>57</v>
       </c>
       <c r="EK18">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="EL18">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EM18">
         <v>160</v>
@@ -11100,7 +11100,7 @@
         <v>182</v>
       </c>
       <c r="ES18">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="ET18">
         <v>178</v>
@@ -11112,7 +11112,7 @@
         <v>161</v>
       </c>
       <c r="EW18">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EX18">
         <v>160</v>
@@ -11193,7 +11193,7 @@
         <v>127</v>
       </c>
       <c r="FX18">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FY18">
         <v>127</v>
@@ -11531,16 +11531,16 @@
         <v>249</v>
       </c>
       <c r="CM19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CN19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CO19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CP19">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CQ19">
         <v>254</v>
@@ -11573,7 +11573,7 @@
         <v>51</v>
       </c>
       <c r="DA19">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="DB19">
         <v>45</v>
@@ -11714,16 +11714,16 @@
         <v>186</v>
       </c>
       <c r="EV19">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EW19">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EX19">
         <v>161</v>
       </c>
       <c r="EY19">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EZ19">
         <v>166</v>
@@ -11798,7 +11798,7 @@
         <v>131</v>
       </c>
       <c r="FX19">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="FY19">
         <v>134</v>
@@ -12169,7 +12169,7 @@
         <v>239</v>
       </c>
       <c r="CX20">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CY20">
         <v>65</v>
@@ -12319,7 +12319,7 @@
         <v>178</v>
       </c>
       <c r="EV20">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EW20">
         <v>158</v>
@@ -12328,7 +12328,7 @@
         <v>159</v>
       </c>
       <c r="EY20">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EZ20">
         <v>165</v>
@@ -12403,7 +12403,7 @@
         <v>131</v>
       </c>
       <c r="FX20">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="FY20">
         <v>134</v>
@@ -12412,7 +12412,7 @@
         <v>134</v>
       </c>
       <c r="GA20">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="GB20">
         <v>135</v>
@@ -12744,19 +12744,19 @@
         <v>248</v>
       </c>
       <c r="CN21">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CO21">
         <v>248</v>
       </c>
       <c r="CP21">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CQ21">
         <v>247</v>
       </c>
       <c r="CR21">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CS21">
         <v>244</v>
@@ -12927,13 +12927,13 @@
         <v>158</v>
       </c>
       <c r="EW21">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EX21">
         <v>159</v>
       </c>
       <c r="EY21">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EZ21">
         <v>162</v>
@@ -13008,7 +13008,7 @@
         <v>128</v>
       </c>
       <c r="FX21">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="FY21">
         <v>133</v>
@@ -13017,7 +13017,7 @@
         <v>133</v>
       </c>
       <c r="GA21">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="GB21">
         <v>134</v>
@@ -13358,7 +13358,7 @@
         <v>236</v>
       </c>
       <c r="CQ22">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CR22">
         <v>190</v>
@@ -13532,7 +13532,7 @@
         <v>160</v>
       </c>
       <c r="EW22">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EX22">
         <v>159</v>
@@ -13613,7 +13613,7 @@
         <v>131</v>
       </c>
       <c r="FX22">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="FY22">
         <v>133</v>
@@ -13622,7 +13622,7 @@
         <v>133</v>
       </c>
       <c r="GA22">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="GB22">
         <v>132</v>
@@ -13909,7 +13909,7 @@
         <v>251</v>
       </c>
       <c r="BY23">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BZ23">
         <v>250</v>
@@ -13942,7 +13942,7 @@
         <v>234</v>
       </c>
       <c r="CJ23">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CK23">
         <v>204</v>
@@ -14499,7 +14499,7 @@
         <v>254</v>
       </c>
       <c r="BT24">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BU24">
         <v>253</v>
@@ -14667,7 +14667,7 @@
         <v>245</v>
       </c>
       <c r="DX24">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DY24">
         <v>243</v>
@@ -14724,7 +14724,7 @@
         <v>159</v>
       </c>
       <c r="EQ24">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="ER24">
         <v>179</v>
@@ -15119,7 +15119,7 @@
         <v>240</v>
       </c>
       <c r="BY25">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BZ25">
         <v>237</v>
@@ -15128,7 +15128,7 @@
         <v>222</v>
       </c>
       <c r="CB25">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CC25">
         <v>167</v>
@@ -15140,10 +15140,10 @@
         <v>170</v>
       </c>
       <c r="CF25">
+        <v>153</v>
+      </c>
+      <c r="CG25">
         <v>152</v>
-      </c>
-      <c r="CG25">
-        <v>153</v>
       </c>
       <c r="CH25">
         <v>138</v>
@@ -15161,7 +15161,7 @@
         <v>109</v>
       </c>
       <c r="CM25">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="CN25">
         <v>100</v>
@@ -15227,7 +15227,7 @@
         <v>139</v>
       </c>
       <c r="DI25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DJ25">
         <v>151</v>
@@ -15272,7 +15272,7 @@
         <v>245</v>
       </c>
       <c r="DX25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DY25">
         <v>243</v>
@@ -15712,7 +15712,7 @@
         <v>244</v>
       </c>
       <c r="BU26">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BV26">
         <v>242</v>
@@ -15727,7 +15727,7 @@
         <v>185</v>
       </c>
       <c r="BZ26">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CA26">
         <v>148</v>
@@ -15736,7 +15736,7 @@
         <v>105</v>
       </c>
       <c r="CC26">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CD26">
         <v>132</v>
@@ -15745,13 +15745,13 @@
         <v>126</v>
       </c>
       <c r="CF26">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CG26">
         <v>113</v>
       </c>
       <c r="CH26">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI26">
         <v>117</v>
@@ -15952,7 +15952,7 @@
         <v>156</v>
       </c>
       <c r="EW26">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="EX26">
         <v>158</v>
@@ -16206,10 +16206,10 @@
         <v>249</v>
       </c>
       <c r="AJ27">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK27">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL27">
         <v>253</v>
@@ -16317,7 +16317,7 @@
         <v>246</v>
       </c>
       <c r="BU27">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BV27">
         <v>244</v>
@@ -16437,7 +16437,7 @@
         <v>131</v>
       </c>
       <c r="DI27">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DJ27">
         <v>92</v>
@@ -16482,7 +16482,7 @@
         <v>246</v>
       </c>
       <c r="DX27">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DY27">
         <v>243</v>
@@ -16793,25 +16793,25 @@
         <v>246</v>
       </c>
       <c r="AD28">
+        <v>240</v>
+      </c>
+      <c r="AE28">
+        <v>238</v>
+      </c>
+      <c r="AF28">
+        <v>239</v>
+      </c>
+      <c r="AG28">
+        <v>243</v>
+      </c>
+      <c r="AH28">
         <v>241</v>
-      </c>
-      <c r="AE28">
-        <v>239</v>
-      </c>
-      <c r="AF28">
-        <v>240</v>
-      </c>
-      <c r="AG28">
-        <v>244</v>
-      </c>
-      <c r="AH28">
-        <v>242</v>
       </c>
       <c r="AI28">
         <v>240</v>
       </c>
       <c r="AJ28">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK28">
         <v>239</v>
@@ -16895,7 +16895,7 @@
         <v>253</v>
       </c>
       <c r="BL28">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BM28">
         <v>250</v>
@@ -16946,7 +16946,7 @@
         <v>86</v>
       </c>
       <c r="CC28">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CD28">
         <v>103</v>
@@ -16991,7 +16991,7 @@
         <v>88</v>
       </c>
       <c r="CR28">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="CS28">
         <v>122</v>
@@ -17087,7 +17087,7 @@
         <v>246</v>
       </c>
       <c r="DX28">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DY28">
         <v>243</v>
@@ -17144,7 +17144,7 @@
         <v>156</v>
       </c>
       <c r="EQ28">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="ER28">
         <v>168</v>
@@ -17386,37 +17386,37 @@
         <v>253</v>
       </c>
       <c r="Z29">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA29">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB29">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AC29">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AD29">
         <v>203</v>
       </c>
       <c r="AE29">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF29">
         <v>147</v>
       </c>
       <c r="AG29">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH29">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI29">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AJ29">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK29">
         <v>243</v>
@@ -17530,7 +17530,7 @@
         <v>140</v>
       </c>
       <c r="BV29">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BW29">
         <v>123</v>
@@ -17539,7 +17539,7 @@
         <v>118</v>
       </c>
       <c r="BY29">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BZ29">
         <v>95</v>
@@ -17662,7 +17662,7 @@
         <v>238</v>
       </c>
       <c r="DN29">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DO29">
         <v>245</v>
@@ -17991,22 +17991,22 @@
         <v>252</v>
       </c>
       <c r="Z30">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA30">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB30">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC30">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD30">
         <v>80</v>
       </c>
       <c r="AE30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF30">
         <v>58</v>
@@ -18015,13 +18015,13 @@
         <v>42</v>
       </c>
       <c r="AH30">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30">
         <v>38</v>
       </c>
       <c r="AJ30">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK30">
         <v>79</v>
@@ -18138,7 +18138,7 @@
         <v>116</v>
       </c>
       <c r="BW30">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BX30">
         <v>111</v>
@@ -18252,13 +18252,13 @@
         <v>133</v>
       </c>
       <c r="DI30">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DJ30">
         <v>136</v>
       </c>
       <c r="DK30">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="DL30">
         <v>125</v>
@@ -18297,7 +18297,7 @@
         <v>244</v>
       </c>
       <c r="DX30">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DY30">
         <v>241</v>
@@ -18342,7 +18342,7 @@
         <v>166</v>
       </c>
       <c r="EM30">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EN30">
         <v>153</v>
@@ -18596,7 +18596,7 @@
         <v>251</v>
       </c>
       <c r="Z31">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA31">
         <v>192</v>
@@ -18632,10 +18632,10 @@
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AM31">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN31">
         <v>81</v>
@@ -18656,7 +18656,7 @@
         <v>250</v>
       </c>
       <c r="AT31">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AU31">
         <v>254</v>
@@ -18707,7 +18707,7 @@
         <v>220</v>
       </c>
       <c r="BK31">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BL31">
         <v>177</v>
@@ -18716,7 +18716,7 @@
         <v>172</v>
       </c>
       <c r="BN31">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BO31">
         <v>111</v>
@@ -18731,7 +18731,7 @@
         <v>110</v>
       </c>
       <c r="BS31">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BT31">
         <v>105</v>
@@ -18776,7 +18776,7 @@
         <v>110</v>
       </c>
       <c r="CH31">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CI31">
         <v>100</v>
@@ -18851,7 +18851,7 @@
         <v>129</v>
       </c>
       <c r="DG31">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DH31">
         <v>120</v>
@@ -18890,7 +18890,7 @@
         <v>248</v>
       </c>
       <c r="DT31">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="DU31">
         <v>248</v>
@@ -19022,7 +19022,7 @@
         <v>177</v>
       </c>
       <c r="FL31">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM31">
         <v>176</v>
@@ -19031,16 +19031,16 @@
         <v>179</v>
       </c>
       <c r="FO31">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FP31">
         <v>180</v>
       </c>
       <c r="FQ31">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="FR31">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FS31">
         <v>181</v>
@@ -19231,7 +19231,7 @@
         <v>48</v>
       </c>
       <c r="AJ32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK32">
         <v>52</v>
@@ -19243,7 +19243,7 @@
         <v>41</v>
       </c>
       <c r="AN32">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO32">
         <v>47</v>
@@ -19258,40 +19258,40 @@
         <v>208</v>
       </c>
       <c r="AS32">
+        <v>251</v>
+      </c>
+      <c r="AT32">
         <v>250</v>
       </c>
-      <c r="AT32">
-        <v>249</v>
-      </c>
       <c r="AU32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AV32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AW32">
         <v>252</v>
       </c>
       <c r="AX32">
+        <v>251</v>
+      </c>
+      <c r="AY32">
+        <v>251</v>
+      </c>
+      <c r="AZ32">
+        <v>249</v>
+      </c>
+      <c r="BA32">
         <v>250</v>
       </c>
-      <c r="AY32">
+      <c r="BB32">
         <v>250</v>
       </c>
-      <c r="AZ32">
-        <v>248</v>
-      </c>
-      <c r="BA32">
-        <v>249</v>
-      </c>
-      <c r="BB32">
-        <v>251</v>
-      </c>
       <c r="BC32">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD32">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BE32">
         <v>250</v>
@@ -19306,7 +19306,7 @@
         <v>222</v>
       </c>
       <c r="BI32">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BJ32">
         <v>150</v>
@@ -19381,7 +19381,7 @@
         <v>124</v>
       </c>
       <c r="CH32">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CI32">
         <v>107</v>
@@ -19459,7 +19459,7 @@
         <v>134</v>
       </c>
       <c r="DH32">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="DI32">
         <v>101</v>
@@ -19627,13 +19627,13 @@
         <v>177</v>
       </c>
       <c r="FL32">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM32">
         <v>178</v>
       </c>
       <c r="FN32">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FO32">
         <v>183</v>
@@ -19642,10 +19642,10 @@
         <v>182</v>
       </c>
       <c r="FQ32">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FR32">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FS32">
         <v>180</v>
@@ -19842,10 +19842,10 @@
         <v>53</v>
       </c>
       <c r="AL33">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AN33">
         <v>45</v>
@@ -19875,16 +19875,16 @@
         <v>238</v>
       </c>
       <c r="AW33">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AX33">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AY33">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AZ33">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BA33">
         <v>248</v>
@@ -19908,7 +19908,7 @@
         <v>230</v>
       </c>
       <c r="BH33">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BI33">
         <v>117</v>
@@ -19986,7 +19986,7 @@
         <v>118</v>
       </c>
       <c r="CH33">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CI33">
         <v>88</v>
@@ -20034,7 +20034,7 @@
         <v>116</v>
       </c>
       <c r="CX33">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CY33">
         <v>107</v>
@@ -20049,10 +20049,10 @@
         <v>123</v>
       </c>
       <c r="DC33">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DD33">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DE33">
         <v>158</v>
@@ -20103,7 +20103,7 @@
         <v>237</v>
       </c>
       <c r="DU33">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="DV33">
         <v>248</v>
@@ -20244,13 +20244,13 @@
         <v>182</v>
       </c>
       <c r="FP33">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FQ33">
         <v>180</v>
       </c>
       <c r="FR33">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FS33">
         <v>188</v>
@@ -20262,7 +20262,7 @@
         <v>151</v>
       </c>
       <c r="FV33">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FW33">
         <v>128</v>
@@ -20408,10 +20408,10 @@
         <v>250</v>
       </c>
       <c r="Y34">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z34">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA34">
         <v>59</v>
@@ -20429,7 +20429,7 @@
         <v>52</v>
       </c>
       <c r="AF34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG34">
         <v>59</v>
@@ -20450,7 +20450,7 @@
         <v>52</v>
       </c>
       <c r="AM34">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN34">
         <v>46</v>
@@ -20465,10 +20465,10 @@
         <v>41</v>
       </c>
       <c r="AR34">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AS34">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AT34">
         <v>40</v>
@@ -20489,7 +20489,7 @@
         <v>245</v>
       </c>
       <c r="AZ34">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA34">
         <v>245</v>
@@ -20498,7 +20498,7 @@
         <v>246</v>
       </c>
       <c r="BC34">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BD34">
         <v>242</v>
@@ -20591,7 +20591,7 @@
         <v>110</v>
       </c>
       <c r="CH34">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CI34">
         <v>107</v>
@@ -20633,7 +20633,7 @@
         <v>108</v>
       </c>
       <c r="CV34">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CW34">
         <v>82</v>
@@ -20672,7 +20672,7 @@
         <v>23</v>
       </c>
       <c r="DI34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DJ34">
         <v>24</v>
@@ -20681,7 +20681,7 @@
         <v>23</v>
       </c>
       <c r="DL34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="DM34">
         <v>39</v>
@@ -20690,7 +20690,7 @@
         <v>57</v>
       </c>
       <c r="DO34">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DP34">
         <v>142</v>
@@ -20837,7 +20837,7 @@
         <v>177</v>
       </c>
       <c r="FL34">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FM34">
         <v>176</v>
@@ -20849,13 +20849,13 @@
         <v>184</v>
       </c>
       <c r="FP34">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FQ34">
         <v>179</v>
       </c>
       <c r="FR34">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FS34">
         <v>188</v>
@@ -21019,7 +21019,7 @@
         <v>247</v>
       </c>
       <c r="AA35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB35">
         <v>38</v>
@@ -21079,7 +21079,7 @@
         <v>41</v>
       </c>
       <c r="AU35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV35">
         <v>34</v>
@@ -21091,7 +21091,7 @@
         <v>75</v>
       </c>
       <c r="AY35">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ35">
         <v>183</v>
@@ -21112,19 +21112,19 @@
         <v>201</v>
       </c>
       <c r="BF35">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BG35">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BH35">
         <v>86</v>
       </c>
       <c r="BI35">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BJ35">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BK35">
         <v>71</v>
@@ -21196,7 +21196,7 @@
         <v>105</v>
       </c>
       <c r="CH35">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CI35">
         <v>109</v>
@@ -21211,13 +21211,13 @@
         <v>115</v>
       </c>
       <c r="CM35">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CN35">
         <v>126</v>
       </c>
       <c r="CO35">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CP35">
         <v>149</v>
@@ -21238,7 +21238,7 @@
         <v>116</v>
       </c>
       <c r="CV35">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CW35">
         <v>109</v>
@@ -21256,7 +21256,7 @@
         <v>151</v>
       </c>
       <c r="DB35">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DC35">
         <v>163</v>
@@ -21271,16 +21271,16 @@
         <v>50</v>
       </c>
       <c r="DG35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DH35">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="DI35">
         <v>34</v>
       </c>
       <c r="DJ35">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DK35">
         <v>47</v>
@@ -21301,7 +21301,7 @@
         <v>100</v>
       </c>
       <c r="DQ35">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DR35">
         <v>153</v>
@@ -21313,7 +21313,7 @@
         <v>224</v>
       </c>
       <c r="DU35">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DV35">
         <v>247</v>
@@ -21331,13 +21331,13 @@
         <v>240</v>
       </c>
       <c r="EA35">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="EB35">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="EC35">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="ED35">
         <v>252</v>
@@ -21367,7 +21367,7 @@
         <v>168</v>
       </c>
       <c r="EM35">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EN35">
         <v>153</v>
@@ -21424,7 +21424,7 @@
         <v>205</v>
       </c>
       <c r="FF35">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="FG35">
         <v>210</v>
@@ -21436,7 +21436,7 @@
         <v>190</v>
       </c>
       <c r="FJ35">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="FK35">
         <v>176</v>
@@ -21454,7 +21454,7 @@
         <v>182</v>
       </c>
       <c r="FP35">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FQ35">
         <v>178</v>
@@ -21624,7 +21624,7 @@
         <v>247</v>
       </c>
       <c r="AA36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36">
         <v>45</v>
@@ -21759,7 +21759,7 @@
         <v>89</v>
       </c>
       <c r="BT36">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU36">
         <v>113</v>
@@ -21828,7 +21828,7 @@
         <v>158</v>
       </c>
       <c r="CQ36">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CR36">
         <v>165</v>
@@ -21843,13 +21843,13 @@
         <v>119</v>
       </c>
       <c r="CV36">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CW36">
         <v>126</v>
       </c>
       <c r="CX36">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CY36">
         <v>107</v>
@@ -21861,7 +21861,7 @@
         <v>133</v>
       </c>
       <c r="DB36">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="DC36">
         <v>204</v>
@@ -21873,7 +21873,7 @@
         <v>82</v>
       </c>
       <c r="DF36">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="DG36">
         <v>70</v>
@@ -21900,7 +21900,7 @@
         <v>92</v>
       </c>
       <c r="DO36">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="DP36">
         <v>75</v>
@@ -21909,13 +21909,13 @@
         <v>96</v>
       </c>
       <c r="DR36">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DS36">
         <v>143</v>
       </c>
       <c r="DT36">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="DU36">
         <v>207</v>
@@ -22083,7 +22083,7 @@
         <v>125</v>
       </c>
       <c r="FX36">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FY36">
         <v>126</v>
@@ -22229,7 +22229,7 @@
         <v>249</v>
       </c>
       <c r="AA37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB37">
         <v>47</v>
@@ -22319,7 +22319,7 @@
         <v>52</v>
       </c>
       <c r="BE37">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BF37">
         <v>65</v>
@@ -22424,7 +22424,7 @@
         <v>126</v>
       </c>
       <c r="CN37">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CO37">
         <v>135</v>
@@ -22466,7 +22466,7 @@
         <v>158</v>
       </c>
       <c r="DB37">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="DC37">
         <v>206</v>
@@ -22493,7 +22493,7 @@
         <v>218</v>
       </c>
       <c r="DK37">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DL37">
         <v>190</v>
@@ -22505,7 +22505,7 @@
         <v>183</v>
       </c>
       <c r="DO37">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DP37">
         <v>91</v>
@@ -22520,7 +22520,7 @@
         <v>111</v>
       </c>
       <c r="DT37">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DU37">
         <v>161</v>
@@ -22538,7 +22538,7 @@
         <v>240</v>
       </c>
       <c r="DZ37">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EA37">
         <v>246</v>
@@ -22688,7 +22688,7 @@
         <v>127</v>
       </c>
       <c r="FX37">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FY37">
         <v>125</v>
@@ -22834,7 +22834,7 @@
         <v>248</v>
       </c>
       <c r="AA38">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB38">
         <v>52</v>
@@ -23071,7 +23071,7 @@
         <v>177</v>
       </c>
       <c r="DB38">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="DC38">
         <v>195</v>
@@ -23095,7 +23095,7 @@
         <v>224</v>
       </c>
       <c r="DJ38">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DK38">
         <v>228</v>
@@ -23104,7 +23104,7 @@
         <v>215</v>
       </c>
       <c r="DM38">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DN38">
         <v>197</v>
@@ -23134,10 +23134,10 @@
         <v>128</v>
       </c>
       <c r="DW38">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX38">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="DY38">
         <v>221</v>
@@ -23152,7 +23152,7 @@
         <v>253</v>
       </c>
       <c r="EC38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="ED38">
         <v>253</v>
@@ -23436,7 +23436,7 @@
         <v>252</v>
       </c>
       <c r="Z39">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA39">
         <v>147</v>
@@ -23457,10 +23457,10 @@
         <v>92</v>
       </c>
       <c r="AG39">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39">
         <v>79</v>
@@ -23511,13 +23511,13 @@
         <v>35</v>
       </c>
       <c r="AY39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AZ39">
         <v>42</v>
       </c>
       <c r="BA39">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BB39">
         <v>57</v>
@@ -23529,7 +23529,7 @@
         <v>50</v>
       </c>
       <c r="BE39">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BF39">
         <v>44</v>
@@ -23616,7 +23616,7 @@
         <v>98</v>
       </c>
       <c r="CH39">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CI39">
         <v>115</v>
@@ -23676,10 +23676,10 @@
         <v>153</v>
       </c>
       <c r="DB39">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="DC39">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="DD39">
         <v>153</v>
@@ -23688,7 +23688,7 @@
         <v>171</v>
       </c>
       <c r="DF39">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DG39">
         <v>190</v>
@@ -23724,7 +23724,7 @@
         <v>155</v>
       </c>
       <c r="DR39">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DS39">
         <v>160</v>
@@ -23751,7 +23751,7 @@
         <v>212</v>
       </c>
       <c r="EA39">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EB39">
         <v>251</v>
@@ -23781,7 +23781,7 @@
         <v>54</v>
       </c>
       <c r="EK39">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EL39">
         <v>136</v>
@@ -23844,7 +23844,7 @@
         <v>196</v>
       </c>
       <c r="FF39">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FG39">
         <v>198</v>
@@ -24080,7 +24080,7 @@
         <v>70</v>
       </c>
       <c r="AM40">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN40">
         <v>78</v>
@@ -24179,7 +24179,7 @@
         <v>84</v>
       </c>
       <c r="BT40">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BU40">
         <v>89</v>
@@ -24272,7 +24272,7 @@
         <v>141</v>
       </c>
       <c r="CY40">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CZ40">
         <v>150</v>
@@ -24287,7 +24287,7 @@
         <v>184</v>
       </c>
       <c r="DD40">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DE40">
         <v>153</v>
@@ -24332,7 +24332,7 @@
         <v>136</v>
       </c>
       <c r="DS40">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="DT40">
         <v>158</v>
@@ -24533,7 +24533,7 @@
         <v>129</v>
       </c>
       <c r="GH40">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="GI40">
         <v>130</v>
@@ -24685,7 +24685,7 @@
         <v>65</v>
       </c>
       <c r="AM41">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN41">
         <v>112</v>
@@ -24901,13 +24901,13 @@
         <v>127</v>
       </c>
       <c r="DG41">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DH41">
         <v>214</v>
       </c>
       <c r="DI41">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DJ41">
         <v>166</v>
@@ -24925,7 +24925,7 @@
         <v>127</v>
       </c>
       <c r="DO41">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="DP41">
         <v>181</v>
@@ -24934,13 +24934,13 @@
         <v>192</v>
       </c>
       <c r="DR41">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DS41">
         <v>172</v>
       </c>
       <c r="DT41">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DU41">
         <v>157</v>
@@ -24964,7 +24964,7 @@
         <v>208</v>
       </c>
       <c r="EB41">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EC41">
         <v>248</v>
@@ -25138,7 +25138,7 @@
         <v>124</v>
       </c>
       <c r="GH41">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="GI41">
         <v>122</v>
@@ -25254,7 +25254,7 @@
         <v>247</v>
       </c>
       <c r="AA42">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AB42">
         <v>99</v>
@@ -25272,7 +25272,7 @@
         <v>95</v>
       </c>
       <c r="AG42">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH42">
         <v>101</v>
@@ -25290,7 +25290,7 @@
         <v>75</v>
       </c>
       <c r="AM42">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN42">
         <v>138</v>
@@ -25464,16 +25464,16 @@
         <v>127</v>
       </c>
       <c r="CS42">
+        <v>152</v>
+      </c>
+      <c r="CT42">
+        <v>145</v>
+      </c>
+      <c r="CU42">
         <v>153</v>
       </c>
-      <c r="CT42">
-        <v>146</v>
-      </c>
-      <c r="CU42">
-        <v>154</v>
-      </c>
       <c r="CV42">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CW42">
         <v>126</v>
@@ -25539,7 +25539,7 @@
         <v>199</v>
       </c>
       <c r="DR42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DS42">
         <v>158</v>
@@ -25743,7 +25743,7 @@
         <v>125</v>
       </c>
       <c r="GH42">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="GI42">
         <v>121</v>
@@ -25859,7 +25859,7 @@
         <v>250</v>
       </c>
       <c r="AA43">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AB43">
         <v>161</v>
@@ -25892,10 +25892,10 @@
         <v>86</v>
       </c>
       <c r="AL43">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM43">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AN43">
         <v>154</v>
@@ -25967,13 +25967,13 @@
         <v>69</v>
       </c>
       <c r="BK43">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL43">
         <v>89</v>
       </c>
       <c r="BM43">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN43">
         <v>76</v>
@@ -26039,10 +26039,10 @@
         <v>75</v>
       </c>
       <c r="CI43">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CJ43">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CK43">
         <v>162</v>
@@ -26078,7 +26078,7 @@
         <v>152</v>
       </c>
       <c r="CV43">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CW43">
         <v>149</v>
@@ -26102,7 +26102,7 @@
         <v>185</v>
       </c>
       <c r="DD43">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DE43">
         <v>189</v>
@@ -26126,25 +26126,25 @@
         <v>186</v>
       </c>
       <c r="DL43">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="DM43">
         <v>22</v>
       </c>
       <c r="DN43">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DO43">
         <v>133</v>
       </c>
       <c r="DP43">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DQ43">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DR43">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DS43">
         <v>175</v>
@@ -26168,7 +26168,7 @@
         <v>119</v>
       </c>
       <c r="DZ43">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="EA43">
         <v>125</v>
@@ -26348,7 +26348,7 @@
         <v>116</v>
       </c>
       <c r="GH43">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="GI43">
         <v>113</v>
@@ -26467,13 +26467,13 @@
         <v>244</v>
       </c>
       <c r="AB44">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC44">
         <v>63</v>
       </c>
       <c r="AD44">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE44">
         <v>80</v>
@@ -26482,7 +26482,7 @@
         <v>82</v>
       </c>
       <c r="AG44">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH44">
         <v>89</v>
@@ -26548,7 +26548,7 @@
         <v>56</v>
       </c>
       <c r="BC44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BD44">
         <v>36</v>
@@ -26638,7 +26638,7 @@
         <v>39</v>
       </c>
       <c r="CG44">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CH44">
         <v>36</v>
@@ -26725,7 +26725,7 @@
         <v>163</v>
       </c>
       <c r="DJ44">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DK44">
         <v>184</v>
@@ -26791,7 +26791,7 @@
         <v>242</v>
       </c>
       <c r="EF44">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="EG44">
         <v>27</v>
@@ -26848,7 +26848,7 @@
         <v>138</v>
       </c>
       <c r="EY44">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EZ44">
         <v>142</v>
@@ -27066,7 +27066,7 @@
         <v>254</v>
       </c>
       <c r="Z45">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA45">
         <v>244</v>
@@ -27237,7 +27237,7 @@
         <v>198</v>
       </c>
       <c r="CE45">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CF45">
         <v>159</v>
@@ -27249,7 +27249,7 @@
         <v>59</v>
       </c>
       <c r="CI45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CJ45">
         <v>61</v>
@@ -27333,7 +27333,7 @@
         <v>181</v>
       </c>
       <c r="DK45">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="DL45">
         <v>195</v>
@@ -27357,7 +27357,7 @@
         <v>178</v>
       </c>
       <c r="DS45">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DT45">
         <v>135</v>
@@ -27399,7 +27399,7 @@
         <v>90</v>
       </c>
       <c r="EG45">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="EH45">
         <v>9</v>
@@ -27444,7 +27444,7 @@
         <v>133</v>
       </c>
       <c r="EV45">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="EW45">
         <v>137</v>
@@ -27453,7 +27453,7 @@
         <v>136</v>
       </c>
       <c r="EY45">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EZ45">
         <v>141</v>
@@ -27833,10 +27833,10 @@
         <v>173</v>
       </c>
       <c r="CB46">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CC46">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CD46">
         <v>232</v>
@@ -27848,7 +27848,7 @@
         <v>211</v>
       </c>
       <c r="CG46">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CH46">
         <v>175</v>
@@ -27923,7 +27923,7 @@
         <v>105</v>
       </c>
       <c r="DF46">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DG46">
         <v>98</v>
@@ -27941,7 +27941,7 @@
         <v>164</v>
       </c>
       <c r="DL46">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DM46">
         <v>190</v>
@@ -27983,7 +27983,7 @@
         <v>81</v>
       </c>
       <c r="DZ46">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="EA46">
         <v>114</v>
@@ -28001,7 +28001,7 @@
         <v>237</v>
       </c>
       <c r="EF46">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="EG46">
         <v>24</v>
@@ -28016,7 +28016,7 @@
         <v>61</v>
       </c>
       <c r="EK46">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EL46">
         <v>185</v>
@@ -28049,7 +28049,7 @@
         <v>138</v>
       </c>
       <c r="EV46">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EW46">
         <v>141</v>
@@ -28420,13 +28420,13 @@
         <v>56</v>
       </c>
       <c r="BV47">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BW47">
         <v>182</v>
       </c>
       <c r="BX47">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BY47">
         <v>147</v>
@@ -28462,7 +28462,7 @@
         <v>179</v>
       </c>
       <c r="CJ47">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CK47">
         <v>43</v>
@@ -28519,7 +28519,7 @@
         <v>117</v>
       </c>
       <c r="DC47">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DD47">
         <v>85</v>
@@ -28528,13 +28528,13 @@
         <v>71</v>
       </c>
       <c r="DF47">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="DG47">
         <v>76</v>
       </c>
       <c r="DH47">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="DI47">
         <v>71</v>
@@ -28603,7 +28603,7 @@
         <v>181</v>
       </c>
       <c r="EE47">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="EF47">
         <v>64</v>
@@ -28654,7 +28654,7 @@
         <v>136</v>
       </c>
       <c r="EV47">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="EW47">
         <v>132</v>
@@ -28726,7 +28726,7 @@
         <v>127</v>
       </c>
       <c r="FT47">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FU47">
         <v>121</v>
@@ -28738,7 +28738,7 @@
         <v>120</v>
       </c>
       <c r="FX47">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FY47">
         <v>118</v>
@@ -28750,7 +28750,7 @@
         <v>116</v>
       </c>
       <c r="GB47">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="GC47">
         <v>112</v>
@@ -28992,7 +28992,7 @@
         <v>81</v>
       </c>
       <c r="BK48">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BL48">
         <v>87</v>
@@ -29004,7 +29004,7 @@
         <v>87</v>
       </c>
       <c r="BO48">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BP48">
         <v>73</v>
@@ -29043,7 +29043,7 @@
         <v>221</v>
       </c>
       <c r="CB48">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CC48">
         <v>213</v>
@@ -29073,7 +29073,7 @@
         <v>70</v>
       </c>
       <c r="CL48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CM48">
         <v>63</v>
@@ -29085,7 +29085,7 @@
         <v>152</v>
       </c>
       <c r="CP48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CQ48">
         <v>141</v>
@@ -29136,7 +29136,7 @@
         <v>62</v>
       </c>
       <c r="DG48">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="DH48">
         <v>76</v>
@@ -29169,13 +29169,13 @@
         <v>198</v>
       </c>
       <c r="DR48">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DS48">
         <v>153</v>
       </c>
       <c r="DT48">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DU48">
         <v>105</v>
@@ -29597,7 +29597,7 @@
         <v>84</v>
       </c>
       <c r="BK49">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BL49">
         <v>67</v>
@@ -29624,7 +29624,7 @@
         <v>78</v>
       </c>
       <c r="BT49">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU49">
         <v>119</v>
@@ -29666,7 +29666,7 @@
         <v>148</v>
       </c>
       <c r="CH49">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CI49">
         <v>182</v>
@@ -29747,7 +29747,7 @@
         <v>54</v>
       </c>
       <c r="DI49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DJ49">
         <v>13</v>
@@ -29807,7 +29807,7 @@
         <v>108</v>
       </c>
       <c r="EC49">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="ED49">
         <v>143</v>
@@ -30115,13 +30115,13 @@
         <v>73</v>
       </c>
       <c r="AH50">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI50">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ50">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50">
         <v>83</v>
@@ -30223,7 +30223,7 @@
         <v>85</v>
       </c>
       <c r="BR50">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BS50">
         <v>75</v>
@@ -30232,25 +30232,25 @@
         <v>112</v>
       </c>
       <c r="BU50">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BV50">
         <v>228</v>
       </c>
       <c r="BW50">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BX50">
         <v>169</v>
       </c>
       <c r="BY50">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BZ50">
         <v>217</v>
       </c>
       <c r="CA50">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="CB50">
         <v>213</v>
@@ -30259,7 +30259,7 @@
         <v>207</v>
       </c>
       <c r="CD50">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CE50">
         <v>47</v>
@@ -30274,7 +30274,7 @@
         <v>127</v>
       </c>
       <c r="CI50">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CJ50">
         <v>192</v>
@@ -30283,7 +30283,7 @@
         <v>140</v>
       </c>
       <c r="CL50">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CM50">
         <v>128</v>
@@ -30328,7 +30328,7 @@
         <v>68</v>
       </c>
       <c r="DA50">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DB50">
         <v>22</v>
@@ -30346,13 +30346,13 @@
         <v>31</v>
       </c>
       <c r="DG50">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DH50">
         <v>48</v>
       </c>
       <c r="DI50">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="DJ50">
         <v>56</v>
@@ -30379,7 +30379,7 @@
         <v>179</v>
       </c>
       <c r="DR50">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DS50">
         <v>163</v>
@@ -30391,7 +30391,7 @@
         <v>131</v>
       </c>
       <c r="DV50">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DW50">
         <v>150</v>
@@ -30412,7 +30412,7 @@
         <v>103</v>
       </c>
       <c r="EC50">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="ED50">
         <v>132</v>
@@ -30708,13 +30708,13 @@
         <v>252</v>
       </c>
       <c r="AD51">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE51">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF51">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG51">
         <v>181</v>
@@ -30729,7 +30729,7 @@
         <v>72</v>
       </c>
       <c r="AK51">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL51">
         <v>86</v>
@@ -30807,7 +30807,7 @@
         <v>74</v>
       </c>
       <c r="BK51">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL51">
         <v>74</v>
@@ -30843,7 +30843,7 @@
         <v>231</v>
       </c>
       <c r="BW51">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BX51">
         <v>149</v>
@@ -30861,7 +30861,7 @@
         <v>212</v>
       </c>
       <c r="CC51">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CD51">
         <v>135</v>
@@ -30897,7 +30897,7 @@
         <v>135</v>
       </c>
       <c r="CO51">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CP51">
         <v>111</v>
@@ -30951,7 +30951,7 @@
         <v>27</v>
       </c>
       <c r="DG51">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DH51">
         <v>50</v>
@@ -30990,7 +30990,7 @@
         <v>194</v>
       </c>
       <c r="DT51">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DU51">
         <v>193</v>
@@ -31017,7 +31017,7 @@
         <v>105</v>
       </c>
       <c r="EC51">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="ED51">
         <v>165</v>
@@ -31328,7 +31328,7 @@
         <v>198</v>
       </c>
       <c r="AI52">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ52">
         <v>73</v>
@@ -31337,7 +31337,7 @@
         <v>93</v>
       </c>
       <c r="AL52">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM52">
         <v>85</v>
@@ -31382,7 +31382,7 @@
         <v>62</v>
       </c>
       <c r="BA52">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BB52">
         <v>52</v>
@@ -31412,7 +31412,7 @@
         <v>68</v>
       </c>
       <c r="BK52">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL52">
         <v>80</v>
@@ -31454,19 +31454,19 @@
         <v>123</v>
       </c>
       <c r="BY52">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ52">
         <v>197</v>
       </c>
       <c r="CA52">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB52">
         <v>196</v>
       </c>
       <c r="CC52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CD52">
         <v>190</v>
@@ -31481,10 +31481,10 @@
         <v>94</v>
       </c>
       <c r="CH52">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CI52">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CJ52">
         <v>194</v>
@@ -31493,7 +31493,7 @@
         <v>145</v>
       </c>
       <c r="CL52">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CM52">
         <v>128</v>
@@ -31556,7 +31556,7 @@
         <v>58</v>
       </c>
       <c r="DG52">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DH52">
         <v>39</v>
@@ -31637,7 +31637,7 @@
         <v>50</v>
       </c>
       <c r="EH52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="EI52">
         <v>33</v>
@@ -32005,7 +32005,7 @@
         <v>82</v>
       </c>
       <c r="BG53">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BH53">
         <v>84</v>
@@ -32017,7 +32017,7 @@
         <v>62</v>
       </c>
       <c r="BK53">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BL53">
         <v>79</v>
@@ -32059,10 +32059,10 @@
         <v>88</v>
       </c>
       <c r="BY53">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BZ53">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA53">
         <v>189</v>
@@ -32074,7 +32074,7 @@
         <v>182</v>
       </c>
       <c r="CD53">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CE53">
         <v>163</v>
@@ -32098,7 +32098,7 @@
         <v>179</v>
       </c>
       <c r="CL53">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CM53">
         <v>138</v>
@@ -32167,7 +32167,7 @@
         <v>60</v>
       </c>
       <c r="DI53">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="DJ53">
         <v>84</v>
@@ -32206,7 +32206,7 @@
         <v>56</v>
       </c>
       <c r="DV53">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="DW53">
         <v>137</v>
@@ -32233,7 +32233,7 @@
         <v>154</v>
       </c>
       <c r="EE53">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="EF53">
         <v>157</v>
@@ -32616,13 +32616,13 @@
         <v>69</v>
       </c>
       <c r="BI54">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BJ54">
         <v>69</v>
       </c>
       <c r="BK54">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BL54">
         <v>59</v>
@@ -32634,7 +32634,7 @@
         <v>124</v>
       </c>
       <c r="BO54">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP54">
         <v>107</v>
@@ -32664,10 +32664,10 @@
         <v>175</v>
       </c>
       <c r="BY54">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BZ54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CA54">
         <v>154</v>
@@ -32811,7 +32811,7 @@
         <v>180</v>
       </c>
       <c r="DV54">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DW54">
         <v>165</v>
@@ -32835,7 +32835,7 @@
         <v>138</v>
       </c>
       <c r="ED54">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EE54">
         <v>157</v>
@@ -33197,7 +33197,7 @@
         <v>79</v>
       </c>
       <c r="BA55">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BB55">
         <v>83</v>
@@ -33212,7 +33212,7 @@
         <v>106</v>
       </c>
       <c r="BF55">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BG55">
         <v>62</v>
@@ -33221,7 +33221,7 @@
         <v>113</v>
       </c>
       <c r="BI55">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BJ55">
         <v>97</v>
@@ -33269,7 +33269,7 @@
         <v>164</v>
       </c>
       <c r="BY55">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BZ55">
         <v>169</v>
@@ -33278,7 +33278,7 @@
         <v>171</v>
       </c>
       <c r="CB55">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CC55">
         <v>169</v>
@@ -33368,7 +33368,7 @@
         <v>118</v>
       </c>
       <c r="DF55">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DG55">
         <v>94</v>
@@ -33440,7 +33440,7 @@
         <v>131</v>
       </c>
       <c r="ED55">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="EE55">
         <v>168</v>
@@ -33524,7 +33524,7 @@
         <v>184</v>
       </c>
       <c r="FF55">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FG55">
         <v>182</v>
@@ -33760,10 +33760,10 @@
         <v>54</v>
       </c>
       <c r="AM56">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AO56">
         <v>99</v>
@@ -33847,19 +33847,19 @@
         <v>123</v>
       </c>
       <c r="BP56">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BQ56">
         <v>101</v>
       </c>
       <c r="BR56">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BS56">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT56">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU56">
         <v>101</v>
@@ -33892,10 +33892,10 @@
         <v>109</v>
       </c>
       <c r="CE56">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CF56">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CG56">
         <v>122</v>
@@ -34063,7 +34063,7 @@
         <v>65</v>
       </c>
       <c r="EJ56">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="EK56">
         <v>109</v>
@@ -34356,7 +34356,7 @@
         <v>249</v>
       </c>
       <c r="AJ57">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK57">
         <v>230</v>
@@ -34371,7 +34371,7 @@
         <v>75</v>
       </c>
       <c r="AO57">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP57">
         <v>86</v>
@@ -34464,16 +34464,16 @@
         <v>115</v>
       </c>
       <c r="BT57">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BU57">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BV57">
         <v>116</v>
       </c>
       <c r="BW57">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BX57">
         <v>117</v>
@@ -34587,25 +34587,25 @@
         <v>78</v>
       </c>
       <c r="DI57">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="DJ57">
         <v>38</v>
       </c>
       <c r="DK57">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DL57">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="DM57">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DN57">
         <v>87</v>
       </c>
       <c r="DO57">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="DP57">
         <v>100</v>
@@ -34958,7 +34958,7 @@
         <v>252</v>
       </c>
       <c r="AI58">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ58">
         <v>236</v>
@@ -34973,16 +34973,16 @@
         <v>136</v>
       </c>
       <c r="AN58">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO58">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AP58">
         <v>57</v>
       </c>
       <c r="AQ58">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AR58">
         <v>104</v>
@@ -35084,7 +35084,7 @@
         <v>115</v>
       </c>
       <c r="BY58">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ58">
         <v>115</v>
@@ -35183,7 +35183,7 @@
         <v>112</v>
       </c>
       <c r="DF58">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DG58">
         <v>78</v>
@@ -35273,7 +35273,7 @@
         <v>137</v>
       </c>
       <c r="EJ58">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="EK58">
         <v>125</v>
@@ -35282,7 +35282,7 @@
         <v>142</v>
       </c>
       <c r="EM58">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EN58">
         <v>126</v>
@@ -35336,7 +35336,7 @@
         <v>182</v>
       </c>
       <c r="FE58">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FF58">
         <v>183</v>
@@ -35569,7 +35569,7 @@
         <v>242</v>
       </c>
       <c r="AK59">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL59">
         <v>236</v>
@@ -35587,7 +35587,7 @@
         <v>70</v>
       </c>
       <c r="AQ59">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR59">
         <v>90</v>
@@ -35788,7 +35788,7 @@
         <v>106</v>
       </c>
       <c r="DF59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="DG59">
         <v>79</v>
@@ -35845,10 +35845,10 @@
         <v>117</v>
       </c>
       <c r="DY59">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DZ59">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="EA59">
         <v>125</v>
@@ -35878,7 +35878,7 @@
         <v>159</v>
       </c>
       <c r="EJ59">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EK59">
         <v>134</v>
@@ -35971,7 +35971,7 @@
         <v>113</v>
       </c>
       <c r="FO59">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FP59">
         <v>104</v>
@@ -36180,7 +36180,7 @@
         <v>242</v>
       </c>
       <c r="AM60">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN60">
         <v>210</v>
@@ -36189,7 +36189,7 @@
         <v>120</v>
       </c>
       <c r="AP60">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AQ60">
         <v>97</v>
@@ -36216,7 +36216,7 @@
         <v>152</v>
       </c>
       <c r="AY60">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AZ60">
         <v>134</v>
@@ -36267,7 +36267,7 @@
         <v>85</v>
       </c>
       <c r="BP60">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BQ60">
         <v>83</v>
@@ -36348,10 +36348,10 @@
         <v>91</v>
       </c>
       <c r="CQ60">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CR60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CS60">
         <v>86</v>
@@ -36459,10 +36459,10 @@
         <v>118</v>
       </c>
       <c r="EB60">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="EC60">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="ED60">
         <v>127</v>
@@ -36483,16 +36483,16 @@
         <v>149</v>
       </c>
       <c r="EJ60">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="EK60">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EL60">
         <v>128</v>
       </c>
       <c r="EM60">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EN60">
         <v>143</v>
@@ -36519,7 +36519,7 @@
         <v>126</v>
       </c>
       <c r="EV60">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EW60">
         <v>121</v>
@@ -36657,16 +36657,16 @@
         <v>77</v>
       </c>
       <c r="GP60">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="GQ60">
         <v>69</v>
       </c>
       <c r="GR60">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="GS60">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:201">
@@ -36785,16 +36785,16 @@
         <v>247</v>
       </c>
       <c r="AM61">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN61">
         <v>234</v>
       </c>
       <c r="AO61">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP61">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ61">
         <v>93</v>
@@ -36872,7 +36872,7 @@
         <v>97</v>
       </c>
       <c r="BP61">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BQ61">
         <v>73</v>
@@ -37061,7 +37061,7 @@
         <v>73</v>
       </c>
       <c r="EA61">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EB61">
         <v>128</v>
@@ -37073,7 +37073,7 @@
         <v>100</v>
       </c>
       <c r="EE61">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="EF61">
         <v>117</v>
@@ -37112,7 +37112,7 @@
         <v>160</v>
       </c>
       <c r="ER61">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="ES61">
         <v>149</v>
@@ -37184,7 +37184,7 @@
         <v>102</v>
       </c>
       <c r="FP61">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="FQ61">
         <v>105</v>
@@ -37193,7 +37193,7 @@
         <v>107</v>
       </c>
       <c r="FS61">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="FT61">
         <v>109</v>
@@ -37390,7 +37390,7 @@
         <v>251</v>
       </c>
       <c r="AM62">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN62">
         <v>238</v>
@@ -37477,7 +37477,7 @@
         <v>90</v>
       </c>
       <c r="BP62">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BQ62">
         <v>57</v>
@@ -37558,7 +37558,7 @@
         <v>70</v>
       </c>
       <c r="CQ62">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CR62">
         <v>64</v>
@@ -37672,7 +37672,7 @@
         <v>106</v>
       </c>
       <c r="EC62">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="ED62">
         <v>149</v>
@@ -37789,13 +37789,13 @@
         <v>104</v>
       </c>
       <c r="FP62">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="FQ62">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="FR62">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="FS62">
         <v>107</v>
@@ -38223,19 +38223,19 @@
         <v>96</v>
       </c>
       <c r="DK63">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="DL63">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DM63">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="DN63">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DO63">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DP63">
         <v>62</v>
@@ -38319,7 +38319,7 @@
         <v>137</v>
       </c>
       <c r="EQ63">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="ER63">
         <v>136</v>
@@ -38448,7 +38448,7 @@
         <v>80</v>
       </c>
       <c r="GH63">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="GI63">
         <v>84</v>
@@ -38678,7 +38678,7 @@
         <v>71</v>
       </c>
       <c r="BM64">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BN64">
         <v>96</v>
@@ -38693,7 +38693,7 @@
         <v>62</v>
       </c>
       <c r="BR64">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BS64">
         <v>69</v>
@@ -38729,10 +38729,10 @@
         <v>61</v>
       </c>
       <c r="CD64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CE64">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CF64">
         <v>53</v>
@@ -38828,16 +38828,16 @@
         <v>100</v>
       </c>
       <c r="DK64">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DL64">
         <v>97</v>
       </c>
       <c r="DM64">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DN64">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DO64">
         <v>111</v>
@@ -38888,7 +38888,7 @@
         <v>92</v>
       </c>
       <c r="EE64">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EF64">
         <v>135</v>
@@ -38966,7 +38966,7 @@
         <v>177</v>
       </c>
       <c r="FE64">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="FF64">
         <v>179</v>
@@ -39053,7 +39053,7 @@
         <v>83</v>
       </c>
       <c r="GH64">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="GI64">
         <v>83</v>
@@ -39262,7 +39262,7 @@
         <v>100</v>
       </c>
       <c r="BF65">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BG65">
         <v>100</v>
@@ -39277,13 +39277,13 @@
         <v>99</v>
       </c>
       <c r="BK65">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BL65">
         <v>85</v>
       </c>
       <c r="BM65">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BN65">
         <v>92</v>
@@ -39373,7 +39373,7 @@
         <v>67</v>
       </c>
       <c r="CQ65">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CR65">
         <v>61</v>
@@ -39454,7 +39454,7 @@
         <v>95</v>
       </c>
       <c r="DR65">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="DS65">
         <v>40</v>
@@ -39487,7 +39487,7 @@
         <v>93</v>
       </c>
       <c r="EC65">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="ED65">
         <v>108</v>
@@ -39502,7 +39502,7 @@
         <v>122</v>
       </c>
       <c r="EH65">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EI65">
         <v>148</v>
@@ -39592,7 +39592,7 @@
         <v>117</v>
       </c>
       <c r="FL65">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FM65">
         <v>99</v>
@@ -39816,7 +39816,7 @@
         <v>239</v>
       </c>
       <c r="AO66">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP66">
         <v>165</v>
@@ -39867,7 +39867,7 @@
         <v>110</v>
       </c>
       <c r="BF66">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG66">
         <v>109</v>
@@ -39978,7 +39978,7 @@
         <v>73</v>
       </c>
       <c r="CQ66">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CR66">
         <v>48</v>
@@ -40014,7 +40014,7 @@
         <v>70</v>
       </c>
       <c r="DC66">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="DD66">
         <v>11</v>
@@ -40059,10 +40059,10 @@
         <v>121</v>
       </c>
       <c r="DR66">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DS66">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DT66">
         <v>45</v>
@@ -40092,7 +40092,7 @@
         <v>101</v>
       </c>
       <c r="EC66">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="ED66">
         <v>134</v>
@@ -40107,7 +40107,7 @@
         <v>151</v>
       </c>
       <c r="EH66">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="EI66">
         <v>146</v>
@@ -40200,10 +40200,10 @@
         <v>97</v>
       </c>
       <c r="FM66">
+        <v>90</v>
+      </c>
+      <c r="FN66">
         <v>89</v>
-      </c>
-      <c r="FN66">
-        <v>88</v>
       </c>
       <c r="FO66">
         <v>93</v>
@@ -40296,7 +40296,7 @@
         <v>65</v>
       </c>
       <c r="GS66">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:201">
@@ -40421,7 +40421,7 @@
         <v>241</v>
       </c>
       <c r="AO67">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AP67">
         <v>164</v>
@@ -40583,7 +40583,7 @@
         <v>46</v>
       </c>
       <c r="CQ67">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CR67">
         <v>62</v>
@@ -40619,10 +40619,10 @@
         <v>35</v>
       </c>
       <c r="DC67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="DD67">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="DE67">
         <v>55</v>
@@ -40664,7 +40664,7 @@
         <v>90</v>
       </c>
       <c r="DR67">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DS67">
         <v>75</v>
@@ -40802,13 +40802,13 @@
         <v>103</v>
       </c>
       <c r="FL67">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="FM67">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="FN67">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="FO67">
         <v>86</v>
@@ -40895,7 +40895,7 @@
         <v>80</v>
       </c>
       <c r="GQ67">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="GR67">
         <v>66</v>
@@ -41104,7 +41104,7 @@
         <v>128</v>
       </c>
       <c r="BO68">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BP68">
         <v>123</v>
@@ -41188,7 +41188,7 @@
         <v>72</v>
       </c>
       <c r="CQ68">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CR68">
         <v>81</v>
@@ -41227,13 +41227,13 @@
         <v>34</v>
       </c>
       <c r="DD68">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="DE68">
         <v>85</v>
       </c>
       <c r="DF68">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="DG68">
         <v>80</v>
@@ -41269,7 +41269,7 @@
         <v>88</v>
       </c>
       <c r="DR68">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="DS68">
         <v>84</v>
@@ -41410,7 +41410,7 @@
         <v>84</v>
       </c>
       <c r="FM68">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="FN68">
         <v>82</v>
@@ -41500,7 +41500,7 @@
         <v>71</v>
       </c>
       <c r="GQ68">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="GR68">
         <v>68</v>
@@ -41652,7 +41652,7 @@
         <v>121</v>
       </c>
       <c r="AV69">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AW69">
         <v>99</v>
@@ -41682,7 +41682,7 @@
         <v>72</v>
       </c>
       <c r="BF69">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BG69">
         <v>93</v>
@@ -41694,7 +41694,7 @@
         <v>74</v>
       </c>
       <c r="BJ69">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BK69">
         <v>130</v>
@@ -41847,7 +41847,7 @@
         <v>69</v>
       </c>
       <c r="DI69">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="DJ69">
         <v>84</v>
@@ -41901,13 +41901,13 @@
         <v>94</v>
       </c>
       <c r="EA69">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="EB69">
         <v>129</v>
       </c>
       <c r="EC69">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="ED69">
         <v>129</v>
@@ -42012,7 +42012,7 @@
         <v>90</v>
       </c>
       <c r="FL69">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="FM69">
         <v>80</v>
@@ -42054,7 +42054,7 @@
         <v>91</v>
       </c>
       <c r="FZ69">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="GA69">
         <v>82</v>
@@ -42239,10 +42239,10 @@
         <v>234</v>
       </c>
       <c r="AP70">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ70">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AR70">
         <v>128</v>
@@ -42257,7 +42257,7 @@
         <v>107</v>
       </c>
       <c r="AV70">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW70">
         <v>97</v>
@@ -42287,7 +42287,7 @@
         <v>90</v>
       </c>
       <c r="BF70">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BG70">
         <v>94</v>
@@ -42296,7 +42296,7 @@
         <v>78</v>
       </c>
       <c r="BI70">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BJ70">
         <v>93</v>
@@ -42503,7 +42503,7 @@
         <v>78</v>
       </c>
       <c r="DZ70">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="EA70">
         <v>103</v>
@@ -42659,7 +42659,7 @@
         <v>79</v>
       </c>
       <c r="FZ70">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="GA70">
         <v>73</v>
@@ -42862,7 +42862,7 @@
         <v>118</v>
       </c>
       <c r="AV71">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW71">
         <v>94</v>
@@ -42907,7 +42907,7 @@
         <v>93</v>
       </c>
       <c r="BK71">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BL71">
         <v>102</v>
@@ -42988,7 +42988,7 @@
         <v>35</v>
       </c>
       <c r="CL71">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CM71">
         <v>48</v>
@@ -43090,7 +43090,7 @@
         <v>48</v>
       </c>
       <c r="DT71">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="DU71">
         <v>57</v>
@@ -43102,7 +43102,7 @@
         <v>57</v>
       </c>
       <c r="DX71">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="DY71">
         <v>72</v>
@@ -43264,7 +43264,7 @@
         <v>77</v>
       </c>
       <c r="FZ71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="GA71">
         <v>70</v>
@@ -43449,10 +43449,10 @@
         <v>232</v>
       </c>
       <c r="AP72">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AQ72">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AR72">
         <v>138</v>
@@ -43665,10 +43665,10 @@
         <v>55</v>
       </c>
       <c r="DJ72">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="DK72">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="DL72">
         <v>70</v>
@@ -43695,7 +43695,7 @@
         <v>43</v>
       </c>
       <c r="DT72">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="DU72">
         <v>43</v>
@@ -43716,7 +43716,7 @@
         <v>97</v>
       </c>
       <c r="EA72">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EB72">
         <v>95</v>
@@ -43728,10 +43728,10 @@
         <v>129</v>
       </c>
       <c r="EE72">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="EF72">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="EG72">
         <v>181</v>
@@ -43746,7 +43746,7 @@
         <v>139</v>
       </c>
       <c r="EK72">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="EL72">
         <v>154</v>
@@ -43836,7 +43836,7 @@
         <v>74</v>
       </c>
       <c r="FO72">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="FP72">
         <v>79</v>
@@ -43869,7 +43869,7 @@
         <v>71</v>
       </c>
       <c r="FZ72">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="GA72">
         <v>66</v>
@@ -44069,16 +44069,16 @@
         <v>100</v>
       </c>
       <c r="AU73">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AV73">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AW73">
         <v>76</v>
       </c>
       <c r="AX73">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY73">
         <v>75</v>
@@ -44303,7 +44303,7 @@
         <v>61</v>
       </c>
       <c r="DU73">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="DV73">
         <v>73</v>
@@ -44366,7 +44366,7 @@
         <v>119</v>
       </c>
       <c r="EP73">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="EQ73">
         <v>131</v>
@@ -44441,7 +44441,7 @@
         <v>72</v>
       </c>
       <c r="FO73">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="FP73">
         <v>79</v>
@@ -44674,10 +44674,10 @@
         <v>106</v>
       </c>
       <c r="AU74">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AV74">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW74">
         <v>85</v>
@@ -44797,7 +44797,7 @@
         <v>55</v>
       </c>
       <c r="CJ74">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK74">
         <v>53</v>
@@ -44905,7 +44905,7 @@
         <v>55</v>
       </c>
       <c r="DT74">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DU74">
         <v>72</v>
@@ -45282,13 +45282,13 @@
         <v>97</v>
       </c>
       <c r="AV75">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW75">
         <v>81</v>
       </c>
       <c r="AX75">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AY75">
         <v>78</v>
@@ -45402,7 +45402,7 @@
         <v>37</v>
       </c>
       <c r="CJ75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK75">
         <v>84</v>
@@ -45576,7 +45576,7 @@
         <v>117</v>
       </c>
       <c r="EP75">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="EQ75">
         <v>128</v>
@@ -45651,7 +45651,7 @@
         <v>68</v>
       </c>
       <c r="FO75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="FP75">
         <v>77</v>
@@ -45893,7 +45893,7 @@
         <v>93</v>
       </c>
       <c r="AX76">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AY76">
         <v>96</v>
@@ -45917,7 +45917,7 @@
         <v>103</v>
       </c>
       <c r="BF76">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG76">
         <v>95</v>
@@ -46001,7 +46001,7 @@
         <v>26</v>
       </c>
       <c r="CH76">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CI76">
         <v>29</v>
@@ -46073,7 +46073,7 @@
         <v>39</v>
       </c>
       <c r="DF76">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DG76">
         <v>53</v>
@@ -46181,7 +46181,7 @@
         <v>108</v>
       </c>
       <c r="EP76">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="EQ76">
         <v>122</v>
@@ -46241,7 +46241,7 @@
         <v>78</v>
       </c>
       <c r="FJ76">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FK76">
         <v>68</v>
@@ -46292,7 +46292,7 @@
         <v>49</v>
       </c>
       <c r="GA76">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="GB76">
         <v>50</v>
@@ -46678,13 +46678,13 @@
         <v>37</v>
       </c>
       <c r="DF77">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DG77">
         <v>35</v>
       </c>
       <c r="DH77">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DI77">
         <v>26</v>
@@ -46705,7 +46705,7 @@
         <v>30</v>
       </c>
       <c r="DO77">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DP77">
         <v>36</v>
@@ -46762,7 +46762,7 @@
         <v>102</v>
       </c>
       <c r="EH77">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EI77">
         <v>102</v>
@@ -46774,7 +46774,7 @@
         <v>84</v>
       </c>
       <c r="EL77">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="EM77">
         <v>115</v>
@@ -46789,7 +46789,7 @@
         <v>132</v>
       </c>
       <c r="EQ77">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="ER77">
         <v>123</v>
@@ -46804,7 +46804,7 @@
         <v>100</v>
       </c>
       <c r="EV77">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EW77">
         <v>111</v>
@@ -46840,7 +46840,7 @@
         <v>130</v>
       </c>
       <c r="FH77">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="FI77">
         <v>75</v>
@@ -46864,7 +46864,7 @@
         <v>73</v>
       </c>
       <c r="FP77">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="FQ77">
         <v>85</v>
@@ -46903,7 +46903,7 @@
         <v>55</v>
       </c>
       <c r="GC77">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="GD77">
         <v>63</v>
@@ -46951,7 +46951,7 @@
         <v>102</v>
       </c>
       <c r="GS77">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:201">
@@ -47094,7 +47094,7 @@
         <v>149</v>
       </c>
       <c r="AU78">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV78">
         <v>97</v>
@@ -47127,7 +47127,7 @@
         <v>95</v>
       </c>
       <c r="BF78">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG78">
         <v>88</v>
@@ -47199,7 +47199,7 @@
         <v>48</v>
       </c>
       <c r="CD78">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CE78">
         <v>56</v>
@@ -47334,7 +47334,7 @@
         <v>78</v>
       </c>
       <c r="DW78">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DX78">
         <v>96</v>
@@ -47394,19 +47394,19 @@
         <v>129</v>
       </c>
       <c r="EQ78">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="ER78">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="ES78">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="ET78">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="EU78">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EV78">
         <v>100</v>
@@ -47699,7 +47699,7 @@
         <v>161</v>
       </c>
       <c r="AU79">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV79">
         <v>106</v>
@@ -47726,7 +47726,7 @@
         <v>93</v>
       </c>
       <c r="BD79">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE79">
         <v>98</v>
@@ -47906,7 +47906,7 @@
         <v>43</v>
       </c>
       <c r="DL79">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="DM79">
         <v>54</v>
@@ -47939,7 +47939,7 @@
         <v>79</v>
       </c>
       <c r="DW79">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DX79">
         <v>86</v>
@@ -48002,16 +48002,16 @@
         <v>131</v>
       </c>
       <c r="ER79">
+        <v>130</v>
+      </c>
+      <c r="ES79">
         <v>129</v>
       </c>
-      <c r="ES79">
-        <v>128</v>
-      </c>
       <c r="ET79">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EU79">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EV79">
         <v>97</v>
@@ -48304,7 +48304,7 @@
         <v>145</v>
       </c>
       <c r="AU80">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AV80">
         <v>97</v>
@@ -48328,13 +48328,13 @@
         <v>68</v>
       </c>
       <c r="BC80">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BD80">
         <v>70</v>
       </c>
       <c r="BE80">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BF80">
         <v>100</v>
@@ -48520,7 +48520,7 @@
         <v>58</v>
       </c>
       <c r="DO80">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="DP80">
         <v>37</v>
@@ -48547,7 +48547,7 @@
         <v>69</v>
       </c>
       <c r="DX80">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DY80">
         <v>64</v>
@@ -48577,7 +48577,7 @@
         <v>79</v>
       </c>
       <c r="EH80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="EI80">
         <v>78</v>
@@ -48703,7 +48703,7 @@
         <v>76</v>
       </c>
       <c r="FX80">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="FY80">
         <v>74</v>
@@ -48900,7 +48900,7 @@
         <v>232</v>
       </c>
       <c r="AR81">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AS81">
         <v>201</v>
@@ -48939,13 +48939,13 @@
         <v>96</v>
       </c>
       <c r="BE81">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BF81">
         <v>98</v>
       </c>
       <c r="BG81">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BH81">
         <v>102</v>
@@ -48954,7 +48954,7 @@
         <v>129</v>
       </c>
       <c r="BJ81">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BK81">
         <v>105</v>
@@ -48972,19 +48972,19 @@
         <v>87</v>
       </c>
       <c r="BP81">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BQ81">
         <v>96</v>
       </c>
       <c r="BR81">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS81">
         <v>82</v>
       </c>
       <c r="BT81">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU81">
         <v>71</v>
@@ -48999,7 +48999,7 @@
         <v>68</v>
       </c>
       <c r="BY81">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BZ81">
         <v>64</v>
@@ -49041,7 +49041,7 @@
         <v>56</v>
       </c>
       <c r="CM81">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CN81">
         <v>72</v>
@@ -49065,22 +49065,22 @@
         <v>38</v>
       </c>
       <c r="CU81">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CV81">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CW81">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CX81">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CY81">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CZ81">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="DA81">
         <v>37</v>
@@ -49149,10 +49149,10 @@
         <v>64</v>
       </c>
       <c r="DW81">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="DX81">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DY81">
         <v>46</v>
@@ -49182,19 +49182,19 @@
         <v>92</v>
       </c>
       <c r="EH81">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="EI81">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EJ81">
         <v>112</v>
       </c>
       <c r="EK81">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EL81">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="EM81">
         <v>139</v>
@@ -49230,7 +49230,7 @@
         <v>97</v>
       </c>
       <c r="EX81">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="EY81">
         <v>109</v>
@@ -49299,10 +49299,10 @@
         <v>83</v>
       </c>
       <c r="FU81">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="FV81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="FW81">
         <v>75</v>
@@ -49505,7 +49505,7 @@
         <v>223</v>
       </c>
       <c r="AR82">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS82">
         <v>193</v>
@@ -49562,7 +49562,7 @@
         <v>113</v>
       </c>
       <c r="BK82">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BL82">
         <v>113</v>
@@ -49646,7 +49646,7 @@
         <v>55</v>
       </c>
       <c r="CM82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CN82">
         <v>56</v>
@@ -49655,10 +49655,10 @@
         <v>83</v>
       </c>
       <c r="CP82">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CQ82">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CR82">
         <v>36</v>
@@ -49667,7 +49667,7 @@
         <v>36</v>
       </c>
       <c r="CT82">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CU82">
         <v>32</v>
@@ -49802,7 +49802,7 @@
         <v>125</v>
       </c>
       <c r="EM82">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="EN82">
         <v>105</v>
@@ -49919,7 +49919,7 @@
         <v>68</v>
       </c>
       <c r="FZ82">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GA82">
         <v>66</v>
@@ -50110,7 +50110,7 @@
         <v>226</v>
       </c>
       <c r="AR83">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AS83">
         <v>211</v>
@@ -50167,7 +50167,7 @@
         <v>86</v>
       </c>
       <c r="BK83">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BL83">
         <v>77</v>
@@ -50251,7 +50251,7 @@
         <v>41</v>
       </c>
       <c r="CM83">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CN83">
         <v>36</v>
@@ -50431,7 +50431,7 @@
         <v>149</v>
       </c>
       <c r="EU83">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EV83">
         <v>145</v>
@@ -50443,7 +50443,7 @@
         <v>99</v>
       </c>
       <c r="EY83">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EZ83">
         <v>107</v>
@@ -50715,7 +50715,7 @@
         <v>229</v>
       </c>
       <c r="AR84">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AS84">
         <v>216</v>
@@ -50727,7 +50727,7 @@
         <v>119</v>
       </c>
       <c r="AV84">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AW84">
         <v>92</v>
@@ -50772,7 +50772,7 @@
         <v>75</v>
       </c>
       <c r="BK84">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BL84">
         <v>70</v>
@@ -50853,7 +50853,7 @@
         <v>48</v>
       </c>
       <c r="CL84">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CM84">
         <v>39</v>
@@ -50883,7 +50883,7 @@
         <v>34</v>
       </c>
       <c r="CV84">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CW84">
         <v>49</v>
@@ -51048,7 +51048,7 @@
         <v>120</v>
       </c>
       <c r="EY84">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="EZ84">
         <v>102</v>
@@ -51129,7 +51129,7 @@
         <v>63</v>
       </c>
       <c r="FZ84">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="GA84">
         <v>58</v>
@@ -51320,7 +51320,7 @@
         <v>227</v>
       </c>
       <c r="AR85">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AS85">
         <v>209</v>
@@ -51476,7 +51476,7 @@
         <v>36</v>
       </c>
       <c r="CR85">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CS85">
         <v>44</v>
@@ -51596,10 +51596,10 @@
         <v>107</v>
       </c>
       <c r="EF85">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="EG85">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EH85">
         <v>87</v>
@@ -51656,7 +51656,7 @@
         <v>120</v>
       </c>
       <c r="EZ85">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="FA85">
         <v>128</v>
@@ -51695,10 +51695,10 @@
         <v>68</v>
       </c>
       <c r="FM85">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FN85">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FO85">
         <v>65</v>
@@ -51737,10 +51737,10 @@
         <v>58</v>
       </c>
       <c r="GA85">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="GB85">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="GC85">
         <v>65</v>
@@ -51779,13 +51779,13 @@
         <v>45</v>
       </c>
       <c r="GO85">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="GP85">
         <v>52</v>
       </c>
       <c r="GQ85">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="GR85">
         <v>56</v>
@@ -51925,7 +51925,7 @@
         <v>231</v>
       </c>
       <c r="AR86">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AS86">
         <v>226</v>
@@ -52249,13 +52249,13 @@
         <v>139</v>
       </c>
       <c r="EV86">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EW86">
         <v>152</v>
       </c>
       <c r="EX86">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="EY86">
         <v>132</v>
@@ -52324,7 +52324,7 @@
         <v>68</v>
       </c>
       <c r="FU86">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FV86">
         <v>64</v>
@@ -52339,7 +52339,7 @@
         <v>60</v>
       </c>
       <c r="FZ86">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="GA86">
         <v>58</v>
@@ -52372,7 +52372,7 @@
         <v>54</v>
       </c>
       <c r="GK86">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GL86">
         <v>52</v>
@@ -52381,10 +52381,10 @@
         <v>49</v>
       </c>
       <c r="GN86">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GO86">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GP86">
         <v>55</v>
@@ -52944,7 +52944,7 @@
         <v>58</v>
       </c>
       <c r="FZ87">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="GA87">
         <v>58</v>
@@ -52953,7 +52953,7 @@
         <v>56</v>
       </c>
       <c r="GC87">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="GD87">
         <v>59</v>
@@ -52974,7 +52974,7 @@
         <v>62</v>
       </c>
       <c r="GJ87">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="GK87">
         <v>56</v>
@@ -52986,7 +52986,7 @@
         <v>52</v>
       </c>
       <c r="GN87">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="GO87">
         <v>50</v>
@@ -53138,7 +53138,7 @@
         <v>219</v>
       </c>
       <c r="AS88">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AT88">
         <v>201</v>
@@ -53381,7 +53381,7 @@
         <v>91</v>
       </c>
       <c r="DV88">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="DW88">
         <v>102</v>
@@ -53459,7 +53459,7 @@
         <v>139</v>
       </c>
       <c r="EV88">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EW88">
         <v>127</v>
@@ -53534,7 +53534,7 @@
         <v>67</v>
       </c>
       <c r="FU88">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FV88">
         <v>65</v>
@@ -53552,13 +53552,13 @@
         <v>52</v>
       </c>
       <c r="GA88">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GB88">
         <v>50</v>
       </c>
       <c r="GC88">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="GD88">
         <v>55</v>
@@ -53582,7 +53582,7 @@
         <v>54</v>
       </c>
       <c r="GK88">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GL88">
         <v>54</v>
@@ -53591,7 +53591,7 @@
         <v>52</v>
       </c>
       <c r="GN88">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="GO88">
         <v>50</v>
@@ -53606,7 +53606,7 @@
         <v>52</v>
       </c>
       <c r="GS88">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:201">
@@ -53806,7 +53806,7 @@
         <v>77</v>
       </c>
       <c r="BN89">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BO89">
         <v>82</v>
@@ -53881,7 +53881,7 @@
         <v>25</v>
       </c>
       <c r="CM89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CN89">
         <v>36</v>
@@ -53890,7 +53890,7 @@
         <v>29</v>
       </c>
       <c r="CP89">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CQ89">
         <v>43</v>
@@ -53968,7 +53968,7 @@
         <v>76</v>
       </c>
       <c r="DP89">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DQ89">
         <v>79</v>
@@ -53977,7 +53977,7 @@
         <v>98</v>
       </c>
       <c r="DS89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="DT89">
         <v>77</v>
@@ -54007,7 +54007,7 @@
         <v>111</v>
       </c>
       <c r="EC89">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="ED89">
         <v>92</v>
@@ -54025,7 +54025,7 @@
         <v>94</v>
       </c>
       <c r="EI89">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="EJ89">
         <v>89</v>
@@ -54076,19 +54076,19 @@
         <v>150</v>
       </c>
       <c r="EZ89">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="FA89">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="FB89">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FC89">
         <v>112</v>
       </c>
       <c r="FD89">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="FE89">
         <v>103</v>
@@ -54103,10 +54103,10 @@
         <v>85</v>
       </c>
       <c r="FI89">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="FJ89">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FK89">
         <v>64</v>
@@ -54139,7 +54139,7 @@
         <v>66</v>
       </c>
       <c r="FU89">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FV89">
         <v>63</v>
@@ -54154,7 +54154,7 @@
         <v>52</v>
       </c>
       <c r="FZ89">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GA89">
         <v>48</v>
@@ -54187,7 +54187,7 @@
         <v>51</v>
       </c>
       <c r="GK89">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GL89">
         <v>52</v>
@@ -54202,10 +54202,10 @@
         <v>50</v>
       </c>
       <c r="GP89">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="GQ89">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="GR89">
         <v>51</v>
@@ -54603,7 +54603,7 @@
         <v>116</v>
       </c>
       <c r="DZ90">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EA90">
         <v>112</v>
@@ -54693,7 +54693,7 @@
         <v>112</v>
       </c>
       <c r="FD90">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="FE90">
         <v>95</v>
@@ -54717,7 +54717,7 @@
         <v>63</v>
       </c>
       <c r="FL90">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="FM90">
         <v>64</v>
@@ -54792,7 +54792,7 @@
         <v>51</v>
       </c>
       <c r="GK90">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GL90">
         <v>53</v>
@@ -54953,7 +54953,7 @@
         <v>218</v>
       </c>
       <c r="AS91">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AT91">
         <v>200</v>
@@ -55049,7 +55049,7 @@
         <v>60</v>
       </c>
       <c r="BY91">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BZ91">
         <v>59</v>
@@ -55313,7 +55313,7 @@
         <v>79</v>
       </c>
       <c r="FI91">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="FJ91">
         <v>60</v>
@@ -55358,7 +55358,7 @@
         <v>54</v>
       </c>
       <c r="FX91">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="FY91">
         <v>48</v>
@@ -55394,10 +55394,10 @@
         <v>50</v>
       </c>
       <c r="GJ91">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="GK91">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GL91">
         <v>52</v>
@@ -55612,7 +55612,7 @@
         <v>67</v>
       </c>
       <c r="BK92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BL92">
         <v>78</v>
@@ -55795,7 +55795,7 @@
         <v>84</v>
       </c>
       <c r="DT92">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="DU92">
         <v>97</v>
@@ -55807,7 +55807,7 @@
         <v>80</v>
       </c>
       <c r="DX92">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="DY92">
         <v>105</v>
@@ -55852,7 +55852,7 @@
         <v>86</v>
       </c>
       <c r="EM92">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EN92">
         <v>87</v>
@@ -55915,7 +55915,7 @@
         <v>100</v>
       </c>
       <c r="FH92">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="FI92">
         <v>61</v>
@@ -55927,7 +55927,7 @@
         <v>54</v>
       </c>
       <c r="FL92">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FM92">
         <v>56</v>
@@ -56002,7 +56002,7 @@
         <v>50</v>
       </c>
       <c r="GK92">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GL92">
         <v>51</v>
@@ -56163,7 +56163,7 @@
         <v>222</v>
       </c>
       <c r="AS93">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT93">
         <v>206</v>
@@ -56202,7 +56202,7 @@
         <v>33</v>
       </c>
       <c r="BF93">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BG93">
         <v>53</v>
@@ -56217,7 +56217,7 @@
         <v>41</v>
       </c>
       <c r="BK93">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BL93">
         <v>27</v>
@@ -56259,7 +56259,7 @@
         <v>35</v>
       </c>
       <c r="BY93">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BZ93">
         <v>44</v>
@@ -56283,7 +56283,7 @@
         <v>35</v>
       </c>
       <c r="CG93">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CH93">
         <v>34</v>
@@ -56301,7 +56301,7 @@
         <v>41</v>
       </c>
       <c r="CM93">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CN93">
         <v>25</v>
@@ -56541,7 +56541,7 @@
         <v>57</v>
       </c>
       <c r="FO93">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="FP93">
         <v>51</v>
@@ -57038,7 +57038,7 @@
         <v>118</v>
       </c>
       <c r="EE94">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EF94">
         <v>89</v>
@@ -57146,7 +57146,7 @@
         <v>54</v>
       </c>
       <c r="FO94">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FP94">
         <v>55</v>
@@ -57197,7 +57197,7 @@
         <v>51</v>
       </c>
       <c r="GF94">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GG94">
         <v>50</v>
@@ -57376,7 +57376,7 @@
         <v>211</v>
       </c>
       <c r="AT95">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU95">
         <v>200</v>
@@ -57508,7 +57508,7 @@
         <v>35</v>
       </c>
       <c r="CL95">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CM95">
         <v>30</v>
@@ -57736,13 +57736,13 @@
         <v>55</v>
       </c>
       <c r="FJ95">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="FK95">
         <v>57</v>
       </c>
       <c r="FL95">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="FM95">
         <v>55</v>
@@ -57799,7 +57799,7 @@
         <v>51</v>
       </c>
       <c r="GE95">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="GF95">
         <v>48</v>
@@ -57978,7 +57978,7 @@
         <v>227</v>
       </c>
       <c r="AS96">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AT96">
         <v>199</v>
@@ -58107,7 +58107,7 @@
         <v>25</v>
       </c>
       <c r="CJ96">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CK96">
         <v>42</v>
@@ -58350,7 +58350,7 @@
         <v>56</v>
       </c>
       <c r="FM96">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="FN96">
         <v>49</v>
@@ -58404,7 +58404,7 @@
         <v>48</v>
       </c>
       <c r="GE96">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GF96">
         <v>49</v>
@@ -58631,7 +58631,7 @@
         <v>44</v>
       </c>
       <c r="BI97">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ97">
         <v>59</v>
@@ -58649,7 +58649,7 @@
         <v>35</v>
       </c>
       <c r="BO97">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BP97">
         <v>29</v>
@@ -58712,7 +58712,7 @@
         <v>43</v>
       </c>
       <c r="CJ97">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CK97">
         <v>64</v>
@@ -58919,7 +58919,7 @@
         <v>137</v>
       </c>
       <c r="FA97">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="FB97">
         <v>127</v>
@@ -59003,7 +59003,7 @@
         <v>53</v>
       </c>
       <c r="GC97">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GD97">
         <v>50</v>
@@ -59269,7 +59269,7 @@
         <v>37</v>
       </c>
       <c r="BT98">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BU98">
         <v>30</v>
@@ -59308,10 +59308,10 @@
         <v>36</v>
       </c>
       <c r="CG98">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CH98">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CI98">
         <v>66</v>
@@ -59461,7 +59461,7 @@
         <v>56</v>
       </c>
       <c r="EF98">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="EG98">
         <v>87</v>
@@ -59554,7 +59554,7 @@
         <v>78</v>
       </c>
       <c r="FK98">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="FL98">
         <v>50</v>
@@ -59566,7 +59566,7 @@
         <v>50</v>
       </c>
       <c r="FO98">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="FP98">
         <v>49</v>
@@ -59641,10 +59641,10 @@
         <v>45</v>
       </c>
       <c r="GN98">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GO98">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GP98">
         <v>45</v>
@@ -59874,7 +59874,7 @@
         <v>31</v>
       </c>
       <c r="BT99">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BU99">
         <v>20</v>
@@ -59916,7 +59916,7 @@
         <v>56</v>
       </c>
       <c r="CH99">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CI99">
         <v>57</v>
@@ -60147,10 +60147,10 @@
         <v>139</v>
       </c>
       <c r="FG99">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="FH99">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="FI99">
         <v>144</v>
@@ -60213,19 +60213,19 @@
         <v>48</v>
       </c>
       <c r="GC99">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="GD99">
+        <v>48</v>
+      </c>
+      <c r="GE99">
         <v>49</v>
       </c>
-      <c r="GE99">
-        <v>50</v>
-      </c>
       <c r="GF99">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GG99">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="GH99">
         <v>45</v>
@@ -60246,13 +60246,13 @@
         <v>47</v>
       </c>
       <c r="GN99">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="GO99">
         <v>48</v>
       </c>
       <c r="GP99">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="GQ99">
         <v>46</v>
@@ -60479,7 +60479,7 @@
         <v>26</v>
       </c>
       <c r="BT100">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BU100">
         <v>38</v>
@@ -60515,7 +60515,7 @@
         <v>63</v>
       </c>
       <c r="CF100">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CG100">
         <v>76</v>
@@ -60635,7 +60635,7 @@
         <v>62</v>
       </c>
       <c r="DT100">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DU100">
         <v>90</v>
@@ -60707,19 +60707,19 @@
         <v>116</v>
       </c>
       <c r="ER100">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="ES100">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="ET100">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EU100">
         <v>85</v>
       </c>
       <c r="EV100">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="EW100">
         <v>128</v>
@@ -60752,7 +60752,7 @@
         <v>159</v>
       </c>
       <c r="FG100">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="FH100">
         <v>145</v>
@@ -60761,7 +60761,7 @@
         <v>131</v>
       </c>
       <c r="FJ100">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FK100">
         <v>93</v>
@@ -60779,7 +60779,7 @@
         <v>49</v>
       </c>
       <c r="FP100">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="FQ100">
         <v>52</v>
@@ -60851,10 +60851,10 @@
         <v>50</v>
       </c>
       <c r="GN100">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GO100">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GP100">
         <v>45</v>
@@ -61000,10 +61000,10 @@
         <v>230</v>
       </c>
       <c r="AR101">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AS101">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AT101">
         <v>155</v>
@@ -61078,13 +61078,13 @@
         <v>37</v>
       </c>
       <c r="BR101">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BS101">
         <v>48</v>
       </c>
       <c r="BT101">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BU101">
         <v>41</v>
@@ -61240,7 +61240,7 @@
         <v>55</v>
       </c>
       <c r="DT101">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="DU101">
         <v>81</v>
@@ -61357,7 +61357,7 @@
         <v>136</v>
       </c>
       <c r="FG101">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FH101">
         <v>130</v>
@@ -61366,13 +61366,13 @@
         <v>127</v>
       </c>
       <c r="FJ101">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FK101">
         <v>112</v>
       </c>
       <c r="FL101">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="FM101">
         <v>51</v>
@@ -61381,7 +61381,7 @@
         <v>44</v>
       </c>
       <c r="FO101">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="FP101">
         <v>49</v>
@@ -61408,7 +61408,7 @@
         <v>53</v>
       </c>
       <c r="FX101">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="FY101">
         <v>51</v>
@@ -61432,7 +61432,7 @@
         <v>46</v>
       </c>
       <c r="GF101">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="GG101">
         <v>43</v>
@@ -61456,13 +61456,13 @@
         <v>48</v>
       </c>
       <c r="GN101">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GO101">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="GP101">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="GQ101">
         <v>47</v>
